--- a/generated_docs/WR_89713058_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89713058_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/18/2025 to 07/20/25</t>
+          <t>07/14/2025 to 07/20/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89713058_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89713058_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2732.71</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>1435.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="H26" s="16" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89713058_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89713058_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>2732.71</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P16</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +839,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>0</v>
+        <v>1435.65</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +966,7 @@
         </is>
       </c>
       <c r="H26" s="16" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
   </sheetData>
